--- a/biology/Zoologie/Dolomedes_striatus/Dolomedes_striatus.xlsx
+++ b/biology/Zoologie/Dolomedes_striatus/Dolomedes_striatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes striatus est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes striatus est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Michigan, en Illinois, au Connecticut, dans l'État de New York, au New Jersey et en Virginie et au Canada en Alberta, en Saskatchewan, au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick, en Nouvelle-Écosse et en Terre-Neuve-et-Labrador[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Michigan, en Illinois, au Connecticut, dans l'État de New York, au New Jersey et en Virginie et au Canada en Alberta, en Saskatchewan, au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick, en Nouvelle-Écosse et en Terre-Neuve-et-Labrador,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce affectionne les tourbières et les berges de petits étangs.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles font environ 10 mm du céphalothorax à l'abdomen, et les femelles environ 13 mm. Le céphalothorax et l'abdomen sont bordées de deux bandes bandes pâles étroites de distinctes. L'abdomen est ponctué de blanc le long de ces bandes[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles font environ 10 mm du céphalothorax à l'abdomen, et les femelles environ 13 mm. Le céphalothorax et l'abdomen sont bordées de deux bandes bandes pâles étroites de distinctes. L'abdomen est ponctué de blanc le long de ces bandes,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Giebel, 1869 : Über einige Spinnen aus Illinois. Zeitschrift für die Gesammten Naturwissenschaften, vol. 33, p. 248-253 (texte intégral).</t>
         </is>
